--- a/sample_data/sample_reconciliation_data.xlsx
+++ b/sample_data/sample_reconciliation_data.xlsx
@@ -719,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,36 +797,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENT001</t>
+          <t>GLOB001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Enterprise Solutions</t>
+          <t>Global Enterprises</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>accounts@entsol.com</t>
+          <t>finance@global.com</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5115.88</v>
+        <v>18788.65</v>
       </c>
       <c r="F2" t="n">
-        <v>767.38</v>
+        <v>2818.3</v>
       </c>
       <c r="G2" t="n">
-        <v>5883.26</v>
+        <v>21606.95</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Web Development Services - Enterprise Solutions</t>
+          <t>Security Audit Services - Global Enterprises</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>REF-ENT001-001</t>
+          <t>REF-GLOB001-001</t>
         </is>
       </c>
     </row>
@@ -853,36 +853,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DIGI001</t>
+          <t>GLOB001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Digital Marketing Co</t>
+          <t>Global Enterprises</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pay@digmark.com</t>
+          <t>finance@global.com</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2290.14</v>
+        <v>20553.11</v>
       </c>
       <c r="F3" t="n">
-        <v>343.52</v>
+        <v>3082.97</v>
       </c>
       <c r="G3" t="n">
-        <v>2633.66</v>
+        <v>23636.08</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Business Intelligence Dashboard - Digital Marketing Co</t>
+          <t>CRM Integration Services - Global Enterprises</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>REF-DIGI001-002</t>
+          <t>REF-GLOB001-002</t>
         </is>
       </c>
     </row>
@@ -909,36 +909,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENT001</t>
+          <t>DIGI001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Enterprise Solutions</t>
+          <t>Digital Marketing Co</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>accounts@entsol.com</t>
+          <t>pay@digmark.com</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10899.11</v>
+        <v>3477.61</v>
       </c>
       <c r="F4" t="n">
-        <v>1634.87</v>
+        <v>521.64</v>
       </c>
       <c r="G4" t="n">
-        <v>12533.98</v>
+        <v>3999.25</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Cloud Migration Services - Enterprise Solutions</t>
+          <t>Video Editing Software License - Digital Marketing Co</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>REF-ENT001-003</t>
+          <t>REF-DIGI001-003</t>
         </is>
       </c>
     </row>
@@ -979,22 +979,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3272.79</v>
+        <v>4875.17</v>
       </c>
       <c r="F5" t="n">
-        <v>490.92</v>
+        <v>731.28</v>
       </c>
       <c r="G5" t="n">
-        <v>3763.71</v>
+        <v>5606.45</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Cloud Migration Services - Retail Chain Ltd</t>
+          <t>Mobile App Development - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1021,36 +1021,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>START001</t>
+          <t>MFG001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>StartUp Ventures</t>
+          <t>Manufacturing Inc</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>billing@startup.com</t>
+          <t>ap@mfginc.com</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3183.77</v>
+        <v>24719.22</v>
       </c>
       <c r="F6" t="n">
-        <v>477.57</v>
+        <v>3707.88</v>
       </c>
       <c r="G6" t="n">
-        <v>3661.34</v>
+        <v>28427.1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1060,12 +1060,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>SEO Optimization Package - StartUp Ventures</t>
+          <t>ERP System Implementation - Manufacturing Inc</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>REF-START001-005</t>
+          <t>REF-MFG001-005</t>
         </is>
       </c>
     </row>
@@ -1077,36 +1077,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACME001</t>
+          <t>DIGI001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Acme Corporation</t>
+          <t>Digital Marketing Co</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>billing@acme.com</t>
+          <t>pay@digmark.com</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13818.05</v>
+        <v>1954.99</v>
       </c>
       <c r="F7" t="n">
-        <v>2072.71</v>
+        <v>293.25</v>
       </c>
       <c r="G7" t="n">
-        <v>15890.76</v>
+        <v>2248.24</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Software License Renewal - Acme Corporation</t>
+          <t>Learning Management System - Digital Marketing Co</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>REF-ACME001-006</t>
+          <t>REF-DIGI001-006</t>
         </is>
       </c>
     </row>
@@ -1133,51 +1133,51 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>START001</t>
+          <t>MFG001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>StartUp Ventures</t>
+          <t>Manufacturing Inc</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>billing@startup.com</t>
+          <t>ap@mfginc.com</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1138.64</v>
+        <v>17018.22</v>
       </c>
       <c r="F8" t="n">
-        <v>170.8</v>
+        <v>2552.73</v>
       </c>
       <c r="G8" t="n">
-        <v>1309.44</v>
+        <v>19570.95</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>paid</t>
+          <t>sent</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Learning Management System - StartUp Ventures</t>
+          <t>API Development Services - Manufacturing Inc</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>REF-START001-007</t>
+          <t>REF-MFG001-007</t>
         </is>
       </c>
     </row>
@@ -1189,36 +1189,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MFG001</t>
+          <t>START001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Manufacturing Inc</t>
+          <t>StartUp Ventures</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ap@mfginc.com</t>
+          <t>billing@startup.com</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13301.68</v>
+        <v>1958.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1995.25</v>
+        <v>293.77</v>
       </c>
       <c r="G9" t="n">
-        <v>15296.93</v>
+        <v>2252.27</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Video Editing Software License - Manufacturing Inc</t>
+          <t>API Development Services - StartUp Ventures</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>REF-MFG001-008</t>
+          <t>REF-START001-008</t>
         </is>
       </c>
     </row>
@@ -1245,36 +1245,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MFG001</t>
+          <t>ENT001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Manufacturing Inc</t>
+          <t>Enterprise Solutions</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ap@mfginc.com</t>
+          <t>accounts@entsol.com</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13140.51</v>
+        <v>8341.33</v>
       </c>
       <c r="F10" t="n">
-        <v>1971.08</v>
+        <v>1251.2</v>
       </c>
       <c r="G10" t="n">
-        <v>15111.59</v>
+        <v>9592.530000000001</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Database Optimization - Manufacturing Inc</t>
+          <t>Database Optimization - Enterprise Solutions</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>REF-MFG001-009</t>
+          <t>REF-ENT001-009</t>
         </is>
       </c>
     </row>
@@ -1315,22 +1315,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2390.91</v>
+        <v>2588.6</v>
       </c>
       <c r="F11" t="n">
-        <v>358.64</v>
+        <v>388.29</v>
       </c>
       <c r="G11" t="n">
-        <v>2749.55</v>
+        <v>2976.89</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Business Intelligence Dashboard - StartUp Ventures</t>
+          <t>Risk Management Platform - StartUp Ventures</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1371,22 +1371,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16247.59</v>
+        <v>22183.53</v>
       </c>
       <c r="F12" t="n">
-        <v>2437.14</v>
+        <v>3327.53</v>
       </c>
       <c r="G12" t="n">
-        <v>18684.73</v>
+        <v>25511.06</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Project Management Software - Manufacturing Inc</t>
+          <t>Fleet Management System - Manufacturing Inc</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1413,36 +1413,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TECH001</t>
+          <t>MFG001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tech Solutions Ltd</t>
+          <t>Manufacturing Inc</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>accounts@techsol.com</t>
+          <t>ap@mfginc.com</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2108.78</v>
+        <v>26462.28</v>
       </c>
       <c r="F13" t="n">
-        <v>316.32</v>
+        <v>3969.34</v>
       </c>
       <c r="G13" t="n">
-        <v>2425.1</v>
+        <v>30431.62</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Annual Support Contract - Tech Solutions Ltd</t>
+          <t>Database Optimization - Manufacturing Inc</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>REF-TECH001-012</t>
+          <t>REF-MFG001-012</t>
         </is>
       </c>
     </row>
@@ -1469,51 +1469,51 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DIGI001</t>
+          <t>ENT001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Digital Marketing Co</t>
+          <t>Enterprise Solutions</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>pay@digmark.com</t>
+          <t>accounts@entsol.com</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2590.12</v>
+        <v>6896.64</v>
       </c>
       <c r="F14" t="n">
-        <v>388.52</v>
+        <v>1034.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2978.64</v>
+        <v>7931.14</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>paid</t>
+          <t>sent</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Web Development Services - Digital Marketing Co</t>
+          <t>Database Optimization - Enterprise Solutions</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>REF-DIGI001-013</t>
+          <t>REF-ENT001-013</t>
         </is>
       </c>
     </row>
@@ -1525,36 +1525,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENT001</t>
+          <t>GLOB001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Enterprise Solutions</t>
+          <t>Global Enterprises</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>accounts@entsol.com</t>
+          <t>finance@global.com</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5210.89</v>
+        <v>13288.46</v>
       </c>
       <c r="F15" t="n">
-        <v>781.63</v>
+        <v>1993.27</v>
       </c>
       <c r="G15" t="n">
-        <v>5992.52</v>
+        <v>15281.73</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-21</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Cloud Migration Services - Enterprise Solutions</t>
+          <t>Risk Management Platform - Global Enterprises</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>REF-ENT001-014</t>
+          <t>REF-GLOB001-014</t>
         </is>
       </c>
     </row>
@@ -1581,36 +1581,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GLOB001</t>
+          <t>DIGI001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Global Enterprises</t>
+          <t>Digital Marketing Co</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>finance@global.com</t>
+          <t>pay@digmark.com</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13960.9</v>
+        <v>4512.56</v>
       </c>
       <c r="F16" t="n">
-        <v>2094.13</v>
+        <v>676.88</v>
       </c>
       <c r="G16" t="n">
-        <v>16055.03</v>
+        <v>5189.440000000001</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Learning Management System - Global Enterprises</t>
+          <t>Business Intelligence Dashboard - Digital Marketing Co</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>REF-GLOB001-015</t>
+          <t>REF-DIGI001-015</t>
         </is>
       </c>
     </row>
@@ -1637,51 +1637,51 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GLOB001</t>
+          <t>TECH001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Global Enterprises</t>
+          <t>Tech Solutions Ltd</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>finance@global.com</t>
+          <t>accounts@techsol.com</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11656.09</v>
+        <v>6474.14</v>
       </c>
       <c r="F17" t="n">
-        <v>1748.41</v>
+        <v>971.12</v>
       </c>
       <c r="G17" t="n">
-        <v>13404.5</v>
+        <v>7445.26</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>sent</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CRM Integration Services - Global Enterprises</t>
+          <t>Mobile App Development - Tech Solutions Ltd</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>REF-GLOB001-016</t>
+          <t>REF-TECH001-016</t>
         </is>
       </c>
     </row>
@@ -1693,36 +1693,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RET001</t>
+          <t>DIGI001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Retail Chain Ltd</t>
+          <t>Digital Marketing Co</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>finance@retail.com</t>
+          <t>pay@digmark.com</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7208.78</v>
+        <v>4694.47</v>
       </c>
       <c r="F18" t="n">
-        <v>1081.32</v>
+        <v>704.17</v>
       </c>
       <c r="G18" t="n">
-        <v>8290.1</v>
+        <v>5398.64</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CRM Integration Services - Retail Chain Ltd</t>
+          <t>Risk Management Platform - Digital Marketing Co</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>REF-RET001-017</t>
+          <t>REF-DIGI001-017</t>
         </is>
       </c>
     </row>
@@ -1749,36 +1749,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ACME001</t>
+          <t>ENT001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Acme Corporation</t>
+          <t>Enterprise Solutions</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>billing@acme.com</t>
+          <t>accounts@entsol.com</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14672.11</v>
+        <v>8185.78</v>
       </c>
       <c r="F19" t="n">
-        <v>2200.82</v>
+        <v>1227.87</v>
       </c>
       <c r="G19" t="n">
-        <v>16872.93</v>
+        <v>9413.65</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Data Analytics Platform - Acme Corporation</t>
+          <t>Security Audit Services - Enterprise Solutions</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>REF-ACME001-018</t>
+          <t>REF-ENT001-018</t>
         </is>
       </c>
     </row>
@@ -1805,36 +1805,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MFG001</t>
+          <t>RET001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Manufacturing Inc</t>
+          <t>Retail Chain Ltd</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ap@mfginc.com</t>
+          <t>finance@retail.com</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19056.6</v>
+        <v>3935.79</v>
       </c>
       <c r="F20" t="n">
-        <v>2858.49</v>
+        <v>590.37</v>
       </c>
       <c r="G20" t="n">
-        <v>21915.09</v>
+        <v>4526.16</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>SEO Optimization Package - Manufacturing Inc</t>
+          <t>SEO Optimization Package - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>REF-MFG001-019</t>
+          <t>REF-RET001-019</t>
         </is>
       </c>
     </row>
@@ -1861,36 +1861,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TECH001</t>
+          <t>MFG001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tech Solutions Ltd</t>
+          <t>Manufacturing Inc</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>accounts@techsol.com</t>
+          <t>ap@mfginc.com</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6907.05</v>
+        <v>19752.52</v>
       </c>
       <c r="F21" t="n">
-        <v>1036.06</v>
+        <v>2962.88</v>
       </c>
       <c r="G21" t="n">
-        <v>7943.110000000001</v>
+        <v>22715.4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1900,12 +1900,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>POS System Integration - Tech Solutions Ltd</t>
+          <t>Risk Management Platform - Manufacturing Inc</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>REF-TECH001-020</t>
+          <t>REF-MFG001-020</t>
         </is>
       </c>
     </row>
@@ -1917,36 +1917,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MFG001</t>
+          <t>START001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Manufacturing Inc</t>
+          <t>StartUp Ventures</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ap@mfginc.com</t>
+          <t>billing@startup.com</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19963.2</v>
+        <v>1345.48</v>
       </c>
       <c r="F22" t="n">
-        <v>2994.48</v>
+        <v>201.82</v>
       </c>
       <c r="G22" t="n">
-        <v>22957.68</v>
+        <v>1547.3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Database Optimization - Manufacturing Inc</t>
+          <t>Patient Management System - StartUp Ventures</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>REF-MFG001-021</t>
+          <t>REF-START001-021</t>
         </is>
       </c>
     </row>
@@ -1973,36 +1973,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MFG001</t>
+          <t>ACME001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Manufacturing Inc</t>
+          <t>Acme Corporation</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ap@mfginc.com</t>
+          <t>billing@acme.com</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21825.88</v>
+        <v>12094.05</v>
       </c>
       <c r="F23" t="n">
-        <v>3273.88</v>
+        <v>1814.11</v>
       </c>
       <c r="G23" t="n">
-        <v>25099.76</v>
+        <v>13908.16</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2012,12 +2012,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Software License Renewal - Manufacturing Inc</t>
+          <t>Video Editing Software License - Acme Corporation</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>REF-MFG001-022</t>
+          <t>REF-ACME001-022</t>
         </is>
       </c>
     </row>
@@ -2029,36 +2029,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ACME001</t>
+          <t>ENT001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Acme Corporation</t>
+          <t>Enterprise Solutions</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>billing@acme.com</t>
+          <t>accounts@entsol.com</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5965.4</v>
+        <v>4730.54</v>
       </c>
       <c r="F24" t="n">
-        <v>894.8099999999999</v>
+        <v>709.58</v>
       </c>
       <c r="G24" t="n">
-        <v>6860.209999999999</v>
+        <v>5440.12</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2068,12 +2068,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Annual Support Contract - Acme Corporation</t>
+          <t>Project Management Software - Enterprise Solutions</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>REF-ACME001-023</t>
+          <t>REF-ENT001-023</t>
         </is>
       </c>
     </row>
@@ -2085,36 +2085,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GLOB001</t>
+          <t>DIGI001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Global Enterprises</t>
+          <t>Digital Marketing Co</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>finance@global.com</t>
+          <t>pay@digmark.com</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15148.05</v>
+        <v>2042.53</v>
       </c>
       <c r="F25" t="n">
-        <v>2272.21</v>
+        <v>306.38</v>
       </c>
       <c r="G25" t="n">
-        <v>17420.26</v>
+        <v>2348.91</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2124,12 +2124,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ERP System Implementation - Global Enterprises</t>
+          <t>Annual Support Contract - Digital Marketing Co</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>REF-GLOB001-024</t>
+          <t>REF-DIGI001-024</t>
         </is>
       </c>
     </row>
@@ -2141,27 +2141,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GLOB001</t>
+          <t>MFG001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Global Enterprises</t>
+          <t>Manufacturing Inc</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>finance@global.com</t>
+          <t>ap@mfginc.com</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>15611.11</v>
+        <v>14831.01</v>
       </c>
       <c r="F26" t="n">
-        <v>2341.67</v>
+        <v>2224.65</v>
       </c>
       <c r="G26" t="n">
-        <v>17952.78</v>
+        <v>17055.66</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2175,17 +2175,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>sent</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Web Development Services - Global Enterprises</t>
+          <t>CRM Integration Services - Manufacturing Inc</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>REF-GLOB001-025</t>
+          <t>REF-MFG001-025</t>
         </is>
       </c>
     </row>
@@ -2197,36 +2197,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RET001</t>
+          <t>MFG001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Retail Chain Ltd</t>
+          <t>Manufacturing Inc</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>finance@retail.com</t>
+          <t>ap@mfginc.com</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7306.58</v>
+        <v>22847.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1095.99</v>
+        <v>3427.11</v>
       </c>
       <c r="G27" t="n">
-        <v>8402.57</v>
+        <v>26274.49</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CRM Integration Services - Retail Chain Ltd</t>
+          <t>Web Development Services - Manufacturing Inc</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>REF-RET001-026</t>
+          <t>REF-MFG001-026</t>
         </is>
       </c>
     </row>
@@ -2253,36 +2253,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ACME001</t>
+          <t>RET001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Acme Corporation</t>
+          <t>Retail Chain Ltd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>billing@acme.com</t>
+          <t>finance@retail.com</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12427.43</v>
+        <v>6588.76</v>
       </c>
       <c r="F28" t="n">
-        <v>1864.11</v>
+        <v>988.3099999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>14291.54</v>
+        <v>7577.07</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cloud Migration Services - Acme Corporation</t>
+          <t>Patient Management System - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>REF-ACME001-027</t>
+          <t>REF-RET001-027</t>
         </is>
       </c>
     </row>
@@ -2309,36 +2309,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MFG001</t>
+          <t>START001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Manufacturing Inc</t>
+          <t>StartUp Ventures</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ap@mfginc.com</t>
+          <t>billing@startup.com</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23226.59</v>
+        <v>2931.45</v>
       </c>
       <c r="F29" t="n">
-        <v>3483.99</v>
+        <v>439.72</v>
       </c>
       <c r="G29" t="n">
-        <v>26710.58</v>
+        <v>3371.17</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-08-09</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Security Audit Services - Manufacturing Inc</t>
+          <t>Risk Management Platform - StartUp Ventures</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>REF-MFG001-028</t>
+          <t>REF-START001-028</t>
         </is>
       </c>
     </row>
@@ -2365,51 +2365,51 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GLOB001</t>
+          <t>RET001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Global Enterprises</t>
+          <t>Retail Chain Ltd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>finance@global.com</t>
+          <t>finance@retail.com</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5833.28</v>
+        <v>7434.9</v>
       </c>
       <c r="F30" t="n">
-        <v>874.99</v>
+        <v>1115.23</v>
       </c>
       <c r="G30" t="n">
-        <v>6708.27</v>
+        <v>8550.129999999999</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>paid</t>
+          <t>sent</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fleet Management System - Global Enterprises</t>
+          <t>Database Optimization - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>REF-GLOB001-029</t>
+          <t>REF-RET001-029</t>
         </is>
       </c>
     </row>
@@ -2421,36 +2421,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DIGI001</t>
+          <t>START001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Digital Marketing Co</t>
+          <t>StartUp Ventures</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>pay@digmark.com</t>
+          <t>billing@startup.com</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4889.04</v>
+        <v>1886.42</v>
       </c>
       <c r="F31" t="n">
-        <v>733.36</v>
+        <v>282.96</v>
       </c>
       <c r="G31" t="n">
-        <v>5622.4</v>
+        <v>2169.38</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-08-09</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Patient Management System - Digital Marketing Co</t>
+          <t>CRM Integration Services - StartUp Ventures</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>REF-DIGI001-030</t>
+          <t>REF-START001-030</t>
         </is>
       </c>
     </row>
@@ -2477,36 +2477,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENT001</t>
+          <t>ACME001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Enterprise Solutions</t>
+          <t>Acme Corporation</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>accounts@entsol.com</t>
+          <t>billing@acme.com</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>9882.5</v>
+        <v>11713.86</v>
       </c>
       <c r="F32" t="n">
-        <v>1482.38</v>
+        <v>1757.08</v>
       </c>
       <c r="G32" t="n">
-        <v>11364.88</v>
+        <v>13470.94</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>SEO Optimization Package - Enterprise Solutions</t>
+          <t>Data Analytics Platform - Acme Corporation</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>REF-ENT001-031</t>
+          <t>REF-ACME001-031</t>
         </is>
       </c>
     </row>
@@ -2533,36 +2533,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TECH001</t>
+          <t>MFG001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tech Solutions Ltd</t>
+          <t>Manufacturing Inc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>accounts@techsol.com</t>
+          <t>ap@mfginc.com</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3776.69</v>
+        <v>15029.16</v>
       </c>
       <c r="F33" t="n">
-        <v>566.5</v>
+        <v>2254.37</v>
       </c>
       <c r="G33" t="n">
-        <v>4343.190000000001</v>
+        <v>17283.53</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2572,12 +2572,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Web Development Services - Tech Solutions Ltd</t>
+          <t>Database Optimization - Manufacturing Inc</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>REF-TECH001-032</t>
+          <t>REF-MFG001-032</t>
         </is>
       </c>
     </row>
@@ -2589,36 +2589,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ACME001</t>
+          <t>DIGI001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Acme Corporation</t>
+          <t>Digital Marketing Co</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>billing@acme.com</t>
+          <t>pay@digmark.com</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>14362.49</v>
+        <v>3542.4</v>
       </c>
       <c r="F34" t="n">
-        <v>2154.37</v>
+        <v>531.36</v>
       </c>
       <c r="G34" t="n">
-        <v>16516.86</v>
+        <v>4073.76</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Database Optimization - Acme Corporation</t>
+          <t>ERP System Implementation - Digital Marketing Co</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>REF-ACME001-033</t>
+          <t>REF-DIGI001-033</t>
         </is>
       </c>
     </row>
@@ -2645,36 +2645,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RET001</t>
+          <t>ENT001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Retail Chain Ltd</t>
+          <t>Enterprise Solutions</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>finance@retail.com</t>
+          <t>accounts@entsol.com</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5355.55</v>
+        <v>10814.36</v>
       </c>
       <c r="F35" t="n">
-        <v>803.33</v>
+        <v>1622.15</v>
       </c>
       <c r="G35" t="n">
-        <v>6158.88</v>
+        <v>12436.51</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Database Optimization - Retail Chain Ltd</t>
+          <t>Patient Management System - Enterprise Solutions</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>REF-RET001-034</t>
+          <t>REF-ENT001-034</t>
         </is>
       </c>
     </row>
@@ -2701,51 +2701,51 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RET001</t>
+          <t>MFG001</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Retail Chain Ltd</t>
+          <t>Manufacturing Inc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>finance@retail.com</t>
+          <t>ap@mfginc.com</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3715.11</v>
+        <v>9825.610000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>557.27</v>
+        <v>1473.84</v>
       </c>
       <c r="G36" t="n">
-        <v>4272.38</v>
+        <v>11299.45</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>sent</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Video Editing Software License - Retail Chain Ltd</t>
+          <t>API Development Services - Manufacturing Inc</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>REF-RET001-035</t>
+          <t>REF-MFG001-035</t>
         </is>
       </c>
     </row>
@@ -2757,36 +2757,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GLOB001</t>
+          <t>ACME001</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Global Enterprises</t>
+          <t>Acme Corporation</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>finance@global.com</t>
+          <t>billing@acme.com</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24771.19</v>
+        <v>8670.59</v>
       </c>
       <c r="F37" t="n">
-        <v>3715.68</v>
+        <v>1300.59</v>
       </c>
       <c r="G37" t="n">
-        <v>28486.87</v>
+        <v>9971.18</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-08-23</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Cloud Migration Services - Global Enterprises</t>
+          <t>ERP System Implementation - Acme Corporation</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>REF-GLOB001-036</t>
+          <t>REF-ACME001-036</t>
         </is>
       </c>
     </row>
@@ -2813,36 +2813,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>START001</t>
+          <t>GLOB001</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>StartUp Ventures</t>
+          <t>Global Enterprises</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>billing@startup.com</t>
+          <t>finance@global.com</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2142.18</v>
+        <v>16174.12</v>
       </c>
       <c r="F38" t="n">
-        <v>321.33</v>
+        <v>2426.12</v>
       </c>
       <c r="G38" t="n">
-        <v>2463.51</v>
+        <v>18600.24</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Fleet Management System - StartUp Ventures</t>
+          <t>API Development Services - Global Enterprises</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>REF-START001-037</t>
+          <t>REF-GLOB001-037</t>
         </is>
       </c>
     </row>
@@ -2869,36 +2869,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GLOB001</t>
+          <t>DIGI001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Global Enterprises</t>
+          <t>Digital Marketing Co</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>finance@global.com</t>
+          <t>pay@digmark.com</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>19954.86</v>
+        <v>2063.99</v>
       </c>
       <c r="F39" t="n">
-        <v>2993.23</v>
+        <v>309.6</v>
       </c>
       <c r="G39" t="n">
-        <v>22948.09</v>
+        <v>2373.59</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2908,12 +2908,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Database Optimization - Global Enterprises</t>
+          <t>Data Analytics Platform - Digital Marketing Co</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>REF-GLOB001-038</t>
+          <t>REF-DIGI001-038</t>
         </is>
       </c>
     </row>
@@ -2925,51 +2925,51 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MFG001</t>
+          <t>ACME001</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Manufacturing Inc</t>
+          <t>Acme Corporation</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ap@mfginc.com</t>
+          <t>billing@acme.com</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15791.66</v>
+        <v>12605.14</v>
       </c>
       <c r="F40" t="n">
-        <v>2368.75</v>
+        <v>1890.77</v>
       </c>
       <c r="G40" t="n">
-        <v>18160.41</v>
+        <v>14495.91</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>sent</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>API Development Services - Manufacturing Inc</t>
+          <t>CRM Integration Services - Acme Corporation</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>REF-MFG001-039</t>
+          <t>REF-ACME001-039</t>
         </is>
       </c>
     </row>
@@ -2981,36 +2981,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TECH001</t>
+          <t>RET001</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tech Solutions Ltd</t>
+          <t>Retail Chain Ltd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>accounts@techsol.com</t>
+          <t>finance@retail.com</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6014.19</v>
+        <v>7562.7</v>
       </c>
       <c r="F41" t="n">
-        <v>902.13</v>
+        <v>1134.4</v>
       </c>
       <c r="G41" t="n">
-        <v>6916.32</v>
+        <v>8697.1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>POS System Integration - Tech Solutions Ltd</t>
+          <t>Web Development Services - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>REF-TECH001-040</t>
+          <t>REF-RET001-040</t>
         </is>
       </c>
     </row>
@@ -3037,51 +3037,51 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIGI001</t>
+          <t>RET001</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Digital Marketing Co</t>
+          <t>Retail Chain Ltd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>pay@digmark.com</t>
+          <t>finance@retail.com</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3004.06</v>
+        <v>3900.89</v>
       </c>
       <c r="F42" t="n">
-        <v>450.61</v>
+        <v>585.13</v>
       </c>
       <c r="G42" t="n">
-        <v>3454.67</v>
+        <v>4486.02</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>sent</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Video Editing Software License - Digital Marketing Co</t>
+          <t>Data Analytics Platform - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>REF-DIGI001-041</t>
+          <t>REF-RET001-041</t>
         </is>
       </c>
     </row>
@@ -3093,51 +3093,51 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIGI001</t>
+          <t>RET001</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Digital Marketing Co</t>
+          <t>Retail Chain Ltd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>pay@digmark.com</t>
+          <t>finance@retail.com</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2849.53</v>
+        <v>5021.69</v>
       </c>
       <c r="F43" t="n">
-        <v>427.43</v>
+        <v>753.25</v>
       </c>
       <c r="G43" t="n">
-        <v>3276.96</v>
+        <v>5774.94</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>sent</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Learning Management System - Digital Marketing Co</t>
+          <t>Data Analytics Platform - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>REF-DIGI001-042</t>
+          <t>REF-RET001-042</t>
         </is>
       </c>
     </row>
@@ -3149,51 +3149,51 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GLOB001</t>
+          <t>RET001</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Global Enterprises</t>
+          <t>Retail Chain Ltd</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>finance@global.com</t>
+          <t>finance@retail.com</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6610.9</v>
+        <v>5588</v>
       </c>
       <c r="F44" t="n">
-        <v>991.63</v>
+        <v>838.2</v>
       </c>
       <c r="G44" t="n">
-        <v>7602.53</v>
+        <v>6426.2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>sent</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Patient Management System - Global Enterprises</t>
+          <t>Security Audit Services - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>REF-GLOB001-043</t>
+          <t>REF-RET001-043</t>
         </is>
       </c>
     </row>
@@ -3205,36 +3205,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DIGI001</t>
+          <t>START001</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Digital Marketing Co</t>
+          <t>StartUp Ventures</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>pay@digmark.com</t>
+          <t>billing@startup.com</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4046.29</v>
+        <v>1116.36</v>
       </c>
       <c r="F45" t="n">
-        <v>606.9400000000001</v>
+        <v>167.45</v>
       </c>
       <c r="G45" t="n">
-        <v>4653.23</v>
+        <v>1283.81</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3244,12 +3244,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cloud Migration Services - Digital Marketing Co</t>
+          <t>Mobile App Development - StartUp Ventures</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>REF-DIGI001-044</t>
+          <t>REF-START001-044</t>
         </is>
       </c>
     </row>
@@ -3261,36 +3261,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DIGI001</t>
+          <t>RET001</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Digital Marketing Co</t>
+          <t>Retail Chain Ltd</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>pay@digmark.com</t>
+          <t>finance@retail.com</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3688.6</v>
+        <v>4994.26</v>
       </c>
       <c r="F46" t="n">
-        <v>553.29</v>
+        <v>749.14</v>
       </c>
       <c r="G46" t="n">
-        <v>4241.889999999999</v>
+        <v>5743.400000000001</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Mobile App Development - Digital Marketing Co</t>
+          <t>Cloud Migration Services - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>REF-DIGI001-045</t>
+          <t>REF-RET001-045</t>
         </is>
       </c>
     </row>
@@ -3317,36 +3317,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>RET001</t>
+          <t>GLOB001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Retail Chain Ltd</t>
+          <t>Global Enterprises</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>finance@retail.com</t>
+          <t>finance@global.com</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3314.84</v>
+        <v>6905.62</v>
       </c>
       <c r="F47" t="n">
-        <v>497.23</v>
+        <v>1035.84</v>
       </c>
       <c r="G47" t="n">
-        <v>3812.07</v>
+        <v>7941.46</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Mobile App Development - Retail Chain Ltd</t>
+          <t>Security Audit Services - Global Enterprises</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>REF-RET001-046</t>
+          <t>REF-GLOB001-046</t>
         </is>
       </c>
     </row>
@@ -3373,36 +3373,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DIGI001</t>
+          <t>GLOB001</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Digital Marketing Co</t>
+          <t>Global Enterprises</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>pay@digmark.com</t>
+          <t>finance@global.com</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2050.53</v>
+        <v>15944.73</v>
       </c>
       <c r="F48" t="n">
-        <v>307.58</v>
+        <v>2391.71</v>
       </c>
       <c r="G48" t="n">
-        <v>2358.11</v>
+        <v>18336.44</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>POS System Integration - Digital Marketing Co</t>
+          <t>CRM Integration Services - Global Enterprises</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>REF-DIGI001-047</t>
+          <t>REF-GLOB001-047</t>
         </is>
       </c>
     </row>
@@ -3429,36 +3429,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MFG001</t>
+          <t>ACME001</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Manufacturing Inc</t>
+          <t>Acme Corporation</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ap@mfginc.com</t>
+          <t>billing@acme.com</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>12041.57</v>
+        <v>8582.76</v>
       </c>
       <c r="F49" t="n">
-        <v>1806.24</v>
+        <v>1287.41</v>
       </c>
       <c r="G49" t="n">
-        <v>13847.81</v>
+        <v>9870.17</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ERP System Implementation - Manufacturing Inc</t>
+          <t>CRM Integration Services - Acme Corporation</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>REF-MFG001-048</t>
+          <t>REF-ACME001-048</t>
         </is>
       </c>
     </row>
@@ -3485,36 +3485,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DIGI001</t>
+          <t>START001</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Digital Marketing Co</t>
+          <t>StartUp Ventures</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>pay@digmark.com</t>
+          <t>billing@startup.com</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4542.29</v>
+        <v>1764.55</v>
       </c>
       <c r="F50" t="n">
-        <v>681.34</v>
+        <v>264.68</v>
       </c>
       <c r="G50" t="n">
-        <v>5223.63</v>
+        <v>2029.23</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3524,12 +3524,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>POS System Integration - Digital Marketing Co</t>
+          <t>ERP System Implementation - StartUp Ventures</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>REF-DIGI001-049</t>
+          <t>REF-START001-049</t>
         </is>
       </c>
     </row>
@@ -3541,51 +3541,51 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MFG001</t>
+          <t>RET001</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Manufacturing Inc</t>
+          <t>Retail Chain Ltd</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ap@mfginc.com</t>
+          <t>finance@retail.com</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>17298.12</v>
+        <v>4331.96</v>
       </c>
       <c r="F51" t="n">
-        <v>2594.72</v>
+        <v>649.79</v>
       </c>
       <c r="G51" t="n">
-        <v>19892.84</v>
+        <v>4981.75</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>paid</t>
+          <t>sent</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fleet Management System - Manufacturing Inc</t>
+          <t>Patient Management System - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>REF-MFG001-050</t>
+          <t>REF-RET001-050</t>
         </is>
       </c>
     </row>
@@ -3611,22 +3611,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3796.52</v>
+        <v>2552.04</v>
       </c>
       <c r="F52" t="n">
-        <v>569.48</v>
+        <v>382.81</v>
       </c>
       <c r="G52" t="n">
-        <v>4366</v>
+        <v>2934.85</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Video Editing Software License - Digital Marketing Co</t>
+          <t>Risk Management Platform - Digital Marketing Co</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3653,51 +3653,891 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>ACME001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Acme Corporation</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>billing@acme.com</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>13977.64</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2096.65</v>
+      </c>
+      <c r="G53" t="n">
+        <v>16074.29</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Software License Renewal - Acme Corporation</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>REF-ACME001-052</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>INV-2025-053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RET001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Retail Chain Ltd</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>finance@retail.com</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>5280.03</v>
+      </c>
+      <c r="F54" t="n">
+        <v>792</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6072.03</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Cloud Migration Services - Retail Chain Ltd</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>REF-RET001-053</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>INV-2025-054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>START001</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>StartUp Ventures</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>billing@startup.com</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>1420.13</v>
-      </c>
-      <c r="F53" t="n">
-        <v>213.02</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1633.15</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2025-08-21</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2025-09-20</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="E55" t="n">
+        <v>1391.52</v>
+      </c>
+      <c r="F55" t="n">
+        <v>208.73</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1600.25</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Annual Support Contract - StartUp Ventures</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>REF-START001-052</t>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Risk Management Platform - StartUp Ventures</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>REF-START001-054</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>INV-2025-055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ENT001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>accounts@entsol.com</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4158.42</v>
+      </c>
+      <c r="F56" t="n">
+        <v>623.76</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4782.18</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Database Optimization - Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>REF-ENT001-055</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>INV-2025-056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ENT001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>accounts@entsol.com</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>5861.17</v>
+      </c>
+      <c r="F57" t="n">
+        <v>879.1799999999999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6740.35</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Mobile App Development - Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>REF-ENT001-056</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>INV-2025-057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MFG001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Manufacturing Inc</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ap@mfginc.com</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>27809.39</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4171.41</v>
+      </c>
+      <c r="G58" t="n">
+        <v>31980.8</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Security Audit Services - Manufacturing Inc</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>REF-MFG001-057</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>INV-2025-058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GLOB001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Global Enterprises</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>finance@global.com</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5921.72</v>
+      </c>
+      <c r="F59" t="n">
+        <v>888.26</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6809.98</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Risk Management Platform - Global Enterprises</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>REF-GLOB001-058</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>INV-2025-059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GLOB001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Global Enterprises</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>finance@global.com</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>20631.95</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3094.79</v>
+      </c>
+      <c r="G60" t="n">
+        <v>23726.74</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Project Management Software - Global Enterprises</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>REF-GLOB001-059</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>INV-2025-060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GLOB001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Global Enterprises</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>finance@global.com</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>6605.38</v>
+      </c>
+      <c r="F61" t="n">
+        <v>990.8099999999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7596.190000000001</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Business Intelligence Dashboard - Global Enterprises</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>REF-GLOB001-060</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>INV-2025-061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MFG001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Manufacturing Inc</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ap@mfginc.com</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>10043.63</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1506.54</v>
+      </c>
+      <c r="G62" t="n">
+        <v>11550.17</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>POS System Integration - Manufacturing Inc</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>REF-MFG001-061</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>INV-2025-062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RET001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Retail Chain Ltd</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>finance@retail.com</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>4620.03</v>
+      </c>
+      <c r="F63" t="n">
+        <v>693</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5313.03</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Project Management Software - Retail Chain Ltd</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>REF-RET001-062</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>INV-2025-063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ENT001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>accounts@entsol.com</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>6515.16</v>
+      </c>
+      <c r="F64" t="n">
+        <v>977.27</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7492.43</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Software License Renewal - Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>REF-ENT001-063</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>INV-2025-064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ENT001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>accounts@entsol.com</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>5089.29</v>
+      </c>
+      <c r="F65" t="n">
+        <v>763.39</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5852.68</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>POS System Integration - Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>REF-ENT001-064</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>INV-2025-065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>RET001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Retail Chain Ltd</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>finance@retail.com</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>7975.9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1196.38</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9172.279999999999</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ERP System Implementation - Retail Chain Ltd</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>REF-RET001-065</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>INV-2025-066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>GLOB001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Global Enterprises</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>finance@global.com</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>19572.96</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2935.94</v>
+      </c>
+      <c r="G67" t="n">
+        <v>22508.9</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Learning Management System - Global Enterprises</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>REF-GLOB001-066</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>INV-2025-067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ENT001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>accounts@entsol.com</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>7930.27</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1189.54</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9119.810000000001</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Database Optimization - Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>REF-ENT001-067</t>
         </is>
       </c>
     </row>
@@ -3712,7 +4552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3760,25 +4600,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transfer from StartUp Ventures</t>
+          <t>StartUp Ventures - Invoice Payment</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1309.44</v>
+        <v>2976.89</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>REF-START001-007</t>
+          <t>REF-START001-010</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BK-2025-0618-007</t>
+          <t>BK-2025-0616-010</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3787,31 +4627,27 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>129785.39</v>
+        <v>198097.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wire from Enterprise Solu - REF-ENT001-003</t>
+          <t>StartUp Ventures - Invoice Payment</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12533.98</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>REF-ENT001-003</t>
-        </is>
-      </c>
+        <v>2252.27</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BK-2025-0623-003</t>
+          <t>BK-2025-0627-008</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3820,31 +4656,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>121050.9</v>
+        <v>185528.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACH Credit - StartUp Ventures</t>
+          <t>Transfer from Retail Chain Ltd</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3661.34</v>
+        <v>5606.45</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>REF-START001-005</t>
+          <t>REF-RET001-004</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BK-2025-0624-005</t>
+          <t>BK-2025-0628-004</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3853,60 +4689,64 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>128475.95</v>
+        <v>154848.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ACH Credit - StartUp Ventures</t>
+          <t>Monthly Service Fee</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2749.55</v>
+        <v>-25</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>REF-START001-010</t>
+          <t>BANK-FEE-001</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BK-2025-0625-010</t>
+          <t>BK-2025-0701-FEE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>debit</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>162943.46</v>
+        <v>722053.3700000003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ACH Credit - Digital Marketing Co</t>
+          <t>Wire from StartUp Venture - REF-START001-021</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2633.66</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>1547.3</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>REF-START001-021</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BK-2025-0627-002</t>
+          <t>BK-2025-0703-021</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3915,31 +4755,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>108516.92</v>
+        <v>325557.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACH Credit - Retail Chain Ltd</t>
+          <t>ACH Credit - Digital Marketing Co</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3763.71</v>
+        <v>3999.25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>REF-RET001-004</t>
+          <t>REF-DIGI001-003</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BK-2025-0628-004</t>
+          <t>BK-2025-0704-003</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3948,64 +4788,56 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>124814.61</v>
+        <v>149242.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Monthly Service Fee</t>
+          <t>Tech Solutions Ltd - Invoice Payment</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-25</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BANK-FEE-001</t>
-        </is>
-      </c>
+        <v>7445.26</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BK-2025-0701-FEE</t>
+          <t>BK-2025-0706-016</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>debit</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>550516.1000000001</v>
+        <v>281956.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enterprise Solutions - Invoice Payment</t>
+          <t>Transfer from Retail Chain Ltd</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5883.26</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>REF-ENT001-001</t>
-        </is>
-      </c>
+        <v>4526.16</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BK-2025-0705-001</t>
+          <t>BK-2025-0707-019</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4014,31 +4846,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>105883.26</v>
+        <v>301295.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ACH Credit - Tech Solutions Ltd</t>
+          <t>Global Enterprises - Invoice Payment</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7943.110000000001</v>
+        <v>21606.95</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>REF-TECH001-020</t>
+          <t>REF-GLOB001-001</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BK-2025-0706-020</t>
+          <t>BK-2025-0708-001</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4047,31 +4879,27 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>264100.71</v>
+        <v>121606.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Payment from Tech Solutions Ltd - Annual Support Contr</t>
+          <t>Transfer from Global Enterprises</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2425.1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>REF-TECH001-012</t>
-        </is>
-      </c>
+        <v>23636.08</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BK-2025-0711-012</t>
+          <t>BK-2025-0708-002</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4080,31 +4908,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>184053.29</v>
+        <v>145243.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ACH Credit - Retail Chain Ltd</t>
+          <t>Wire from Enterprise Solu - REF-ENT001-009</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8290.1</v>
+        <v>9592.530000000001</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>REF-RET001-017</t>
+          <t>REF-ENT001-009</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BK-2025-0712-017</t>
+          <t>BK-2025-0711-009</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4113,31 +4941,31 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>217369.58</v>
+        <v>195120.63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wire from Acme Corporatio - REF-ACME001-018</t>
+          <t>ACH Credit - Digital Marketing Co</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16872.93</v>
+        <v>5398.64</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>REF-ACME001-018</t>
+          <t>REF-DIGI001-017</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BK-2025-0712-018</t>
+          <t>BK-2025-0713-017</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4146,31 +4974,27 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>234242.51</v>
+        <v>287355.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Interest Payment</t>
+          <t>Wire from Manufacturing I - REF-MFG001-005</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INT-PAYMENT-001</t>
-        </is>
-      </c>
+        <v>28427.1</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BK-2025-0715-INT</t>
+          <t>BK-2025-0714-005</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4179,31 +5003,31 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>550616.6000000001</v>
+        <v>183275.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Payment from Digital Marketing Co - Web Development Serv</t>
+          <t>Interest Payment</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2978.64</v>
+        <v>125.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>REF-DIGI001-013</t>
+          <t>INT-PAYMENT-001</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BK-2025-0716-013</t>
+          <t>BK-2025-0715-INT</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4212,31 +5036,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>187031.93</v>
+        <v>722153.8700000003</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Manufacturing Inc - Invoice Payment</t>
+          <t>Transfer from Acme Corporation</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15111.59</v>
+        <v>13908.16</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>REF-MFG001-009</t>
+          <t>REF-ACME001-022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BK-2025-0719-009</t>
+          <t>BK-2025-0717-022</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4245,31 +5069,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>160193.91</v>
+        <v>339465.94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Manufacturing Inc - Invoice Payment</t>
+          <t>ACH Credit - Digital Marketing Co</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15296.93</v>
+        <v>2348.91</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>REF-MFG001-008</t>
+          <t>REF-DIGI001-024</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BK-2025-0722-008</t>
+          <t>BK-2025-0717-024</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4278,31 +5102,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>145082.32</v>
+        <v>341814.85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Payment from Retail Chain Ltd - CRM Integration Serv</t>
+          <t>Payment from Global Enterprises - Risk Management Plat</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8402.57</v>
+        <v>15281.73</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>REF-RET001-026</t>
+          <t>REF-GLOB001-014</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BK-2025-0726-026</t>
+          <t>BK-2025-0718-014</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4311,31 +5135,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>337980.98</v>
+        <v>269321.93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transfer from Manufacturing Inc</t>
+          <t>Payment from StartUp Ventures - Risk Management Plat</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18684.73</v>
+        <v>3371.17</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>REF-MFG001-011</t>
+          <t>REF-START001-028</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BK-2025-0729-011</t>
+          <t>BK-2025-0721-028</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4344,31 +5168,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>181628.19</v>
+        <v>396093.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Payment from Enterprise Solutions - Cloud Migration Serv</t>
+          <t>ACH Credit - Manufacturing Inc</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5992.52</v>
+        <v>25511.06</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>REF-ENT001-014</t>
+          <t>REF-MFG001-011</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BK-2025-0729-014</t>
+          <t>BK-2025-0724-011</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4377,27 +5201,31 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>193024.45</v>
+        <v>223608.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transfer from Manufacturing Inc</t>
+          <t>Transfer from Digital Marketing Co</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21915.09</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>5189.440000000001</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>REF-DIGI001-015</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BK-2025-0731-019</t>
+          <t>BK-2025-0724-015</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4406,31 +5234,27 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>256157.6</v>
+        <v>274511.37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transfer from Global Enterprises</t>
+          <t>ACH Credit - Manufacturing Inc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17420.26</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>REF-GLOB001-024</t>
-        </is>
-      </c>
+        <v>30431.62</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BK-2025-0801-024</t>
+          <t>BK-2025-0725-012</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4439,64 +5263,60 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>329578.41</v>
+        <v>254040.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Monthly Service Fee</t>
+          <t>Transfer from StartUp Ventures</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-25</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>BANK-FEE-002</t>
-        </is>
-      </c>
+        <v>2169.38</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BK-2025-0801-FEE</t>
+          <t>BK-2025-0725-030</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>debit</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>550491.1000000001</v>
+        <v>398262.62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wire from Acme Corporatio - REF-ACME001-027</t>
+          <t>Payment from Retail Chain Ltd - Patient Management S</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14291.54</v>
+        <v>7577.07</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>REF-ACME001-027</t>
+          <t>REF-RET001-027</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BK-2025-0803-027</t>
+          <t>BK-2025-0726-027</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4505,31 +5325,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>352272.52</v>
+        <v>392722.07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Payment from Digital Marketing Co - Patient Management S</t>
+          <t>Wire from Enterprise Solu - REF-ENT001-018</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5622.4</v>
+        <v>9413.65</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>REF-DIGI001-030</t>
+          <t>REF-ENT001-018</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>BK-2025-0803-030</t>
+          <t>BK-2025-0727-018</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4538,31 +5358,27 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>391313.77</v>
+        <v>296768.92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tech Solutions Ltd - Invoice Payment</t>
+          <t>Wire from Manufacturing I - REF-MFG001-020</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4343.190000000001</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>REF-TECH001-032</t>
-        </is>
-      </c>
+        <v>22715.4</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>BK-2025-0803-032</t>
+          <t>BK-2025-0730-020</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4571,64 +5387,64 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>407021.84</v>
+        <v>324010.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transfer from Global Enterprises</t>
+          <t>Monthly Service Fee</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16055.03</v>
+        <v>-25</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>REF-GLOB001-015</t>
+          <t>BANK-FEE-002</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BK-2025-0804-015</t>
+          <t>BK-2025-0801-FEE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>debit</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>209079.48</v>
+        <v>722028.3700000003</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Unknown Deposit - Investigation Required</t>
+          <t>ACH Credit - Manufacturing Inc</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>750</v>
+        <v>26274.49</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UNKNOWN-001</t>
+          <t>REF-MFG001-026</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BK-2025-0805-UNK</t>
+          <t>BK-2025-0804-026</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4637,31 +5453,31 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>551366.6000000001</v>
+        <v>385145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Payment from Enterprise Solutions - SEO Optimization Pac</t>
+          <t>Unknown Deposit - Investigation Required</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11364.88</v>
+        <v>750</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>REF-ENT001-031</t>
+          <t>UNKNOWN-001</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BK-2025-0806-031</t>
+          <t>BK-2025-0805-UNK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4670,7 +5486,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>402678.65</v>
+        <v>722903.8700000003</v>
       </c>
     </row>
     <row r="30">
@@ -4681,53 +5497,53 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Wire Transfer Fee</t>
+          <t>ACH Credit - Digital Marketing Co</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-35</v>
+        <v>2373.59</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WIRE-FEE-001</t>
+          <t>REF-DIGI001-038</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BK-2025-0810-WIRE</t>
+          <t>BK-2025-0810-038</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>debit</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>551331.6000000001</v>
+        <v>487771.82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Payment from Manufacturing Inc - Database Optimizatio</t>
+          <t>Retail Chain Ltd - Invoice Payment</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22957.68</v>
+        <v>8697.1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>REF-MFG001-021</t>
+          <t>REF-RET001-040</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BK-2025-0811-021</t>
+          <t>BK-2025-0810-040</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4736,60 +5552,64 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>287058.39</v>
+        <v>510964.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Manufacturing Inc - Invoice Payment</t>
+          <t>Wire Transfer Fee</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25099.76</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>-35</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>WIRE-FEE-001</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BK-2025-0811-022</t>
+          <t>BK-2025-0810-WIRE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>debit</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>312158.15</v>
+        <v>722868.8700000003</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transfer from Retail Chain Ltd</t>
+          <t>Wire from Manufacturing I - REF-MFG001-025</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6158.88</v>
+        <v>17055.66</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>REF-RET001-034</t>
+          <t>REF-MFG001-025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BK-2025-0815-034</t>
+          <t>BK-2025-0812-025</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4798,27 +5618,31 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>429697.58</v>
+        <v>358870.51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Payment from Global Enterprises - Fleet Management Sys</t>
+          <t>Payment from Acme Corporation - Data Analytics Platf</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6708.27</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>13470.94</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>REF-ACME001-031</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BK-2025-0816-029</t>
+          <t>BK-2025-0812-031</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4827,31 +5651,31 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>385691.37</v>
+        <v>411733.56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transfer from Acme Corporation</t>
+          <t>Payment from Digital Marketing Co - ERP System Implement</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16516.86</v>
+        <v>4073.76</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>REF-ACME001-033</t>
+          <t>REF-DIGI001-033</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BK-2025-0817-033</t>
+          <t>BK-2025-0812-033</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4860,31 +5684,31 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>423538.7</v>
+        <v>433090.85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wire from Tech Solutions  - REF-TECH001-040</t>
+          <t>Wire from StartUp Venture - REF-START001-049</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6916.32</v>
+        <v>2029.23</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>REF-TECH001-040</t>
+          <t>REF-START001-049</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BK-2025-0818-040</t>
+          <t>BK-2025-0815-049</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4893,31 +5717,31 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>490512.37</v>
+        <v>572856.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Wire from StartUp Venture - REF-START001-037</t>
+          <t>ACH Credit - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2463.51</v>
+        <v>6426.2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>REF-START001-037</t>
+          <t>REF-RET001-043</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BK-2025-0819-037</t>
+          <t>BK-2025-0817-043</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4926,27 +5750,27 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>460647.96</v>
+        <v>527651.99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transfer from Digital Marketing Co</t>
+          <t>ACH Credit - Enterprise Solutions</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4653.23</v>
+        <v>12436.51</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BK-2025-0819-044</t>
+          <t>BK-2025-0818-034</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4955,31 +5779,31 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>495165.6</v>
+        <v>445527.36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Manufacturing Inc - Invoice Payment</t>
+          <t>ACH Credit - Acme Corporation</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>26710.58</v>
+        <v>9971.18</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>REF-MFG001-028</t>
+          <t>REF-ACME001-036</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BK-2025-0824-028</t>
+          <t>BK-2025-0818-036</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4988,31 +5812,31 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>378983.1</v>
+        <v>466797.99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Payment from Global Enterprises - Cloud Migration Serv</t>
+          <t>Wire from Retail Chain Lt - REF-RET001-041</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>28486.87</v>
+        <v>4486.02</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>REF-GLOB001-036</t>
+          <t>REF-RET001-041</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BK-2025-0825-036</t>
+          <t>BK-2025-0818-041</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5021,31 +5845,31 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>458184.45</v>
+        <v>515450.85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ACH Credit - Digital Marketing Co</t>
+          <t>StartUp Ventures - Invoice Payment</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4241.889999999999</v>
+        <v>1283.81</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>REF-DIGI001-045</t>
+          <t>REF-START001-044</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BK-2025-0827-045</t>
+          <t>BK-2025-0818-044</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5054,31 +5878,31 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>499407.49</v>
+        <v>528935.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ACH Credit - Global Enterprises</t>
+          <t>Acme Corporation - Invoice Payment</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22948.09</v>
+        <v>14495.91</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>REF-GLOB001-038</t>
+          <t>REF-ACME001-039</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BK-2025-0830-038</t>
+          <t>BK-2025-0819-039</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5087,27 +5911,31 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>483596.05</v>
+        <v>502267.73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ACH Credit - Digital Marketing Co</t>
+          <t>ACH Credit - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5223.63</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>5774.94</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>REF-RET001-042</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BK-2025-0902-049</t>
+          <t>BK-2025-0819-042</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5116,31 +5944,31 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>524649.11</v>
+        <v>521225.79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>StartUp Ventures - Invoice Payment</t>
+          <t>Manufacturing Inc - Invoice Payment</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1633.15</v>
+        <v>17283.53</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>REF-START001-052</t>
+          <t>REF-MFG001-032</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BK-2025-0905-052</t>
+          <t>BK-2025-0820-032</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5149,27 +5977,31 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>550541.1</v>
+        <v>429017.09</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transfer from Digital Marketing Co</t>
+          <t>Transfer from Global Enterprises</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2358.11</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>7941.46</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>REF-GLOB001-046</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BK-2025-0909-047</t>
+          <t>BK-2025-0821-046</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5178,31 +6010,31 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>505577.67</v>
+        <v>542620.66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Payment from Retail Chain Ltd - Mobile App Developme</t>
+          <t>StartUp Ventures - Invoice Payment</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3812.07</v>
+        <v>1600.25</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>REF-RET001-046</t>
+          <t>REF-START001-054</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BK-2025-0912-046</t>
+          <t>BK-2025-0821-054</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5211,31 +6043,27 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>503219.56</v>
+        <v>599537.92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ACH Credit - Digital Marketing Co</t>
+          <t>Payment from Retail Chain Ltd - Cloud Migration Serv</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4366</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>REF-DIGI001-051</t>
-        </is>
-      </c>
+        <v>5743.400000000001</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BK-2025-0913-051</t>
+          <t>BK-2025-0824-045</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5244,31 +6072,31 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>548907.95</v>
+        <v>534679.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ACH Credit - Manufacturing Inc</t>
+          <t>Payment from Acme Corporation - CRM Integration Serv</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>13847.81</v>
+        <v>9870.17</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>REF-MFG001-048</t>
+          <t>REF-ACME001-048</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>BK-2025-0923-048</t>
+          <t>BK-2025-0827-048</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5277,31 +6105,31 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>519425.48</v>
+        <v>570827.27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wire from Manufacturing I - REF-MFG001-050</t>
+          <t>ACH Credit - Retail Chain Ltd</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19892.84</v>
+        <v>6072.03</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>REF-MFG001-050</t>
+          <t>REF-RET001-053</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>BK-2025-0927-050</t>
+          <t>BK-2025-0827-053</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5310,7 +6138,523 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>544541.95</v>
+        <v>597937.67</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Wire from Global Enterpri - REF-GLOB001-037</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>18600.24</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>REF-GLOB001-037</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BK-2025-0828-037</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>485398.23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ACH Credit - Global Enterprises</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>18336.44</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BK-2025-0830-047</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>560957.1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Wire from Manufacturing I - REF-MFG001-035</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>11299.45</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>REF-MFG001-035</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BK-2025-0831-035</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>456826.81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Payment from Digital Marketing Co - Risk Management Plat</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2934.85</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>REF-DIGI001-051</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BK-2025-0902-051</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>575791.35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Payment from Retail Chain Ltd - Project Management S</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5313.03</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>BK-2025-0907-062</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>690441.17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Transfer from Acme Corporation</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>16074.29</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>REF-ACME001-052</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BK-2025-0908-052</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>591865.64</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ACH Credit - Manufacturing Inc</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>31980.8</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>REF-MFG001-057</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BK-2025-0910-057</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>643041.25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ACH Credit - Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>7492.43</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>REF-ENT001-063</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>BK-2025-0910-063</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>697933.6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Wire from Enterprise Solu - REF-ENT001-055</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4782.18</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>REF-ENT001-055</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>BK-2025-0911-055</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>604320.1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Wire from Retail Chain Lt - REF-RET001-065</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>9172.279999999999</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>REF-RET001-065</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BK-2025-0915-065</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>712958.5600000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Wire from Enterprise Solu - REF-ENT001-067</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>9119.810000000001</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>REF-ENT001-067</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>BK-2025-0915-067</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>722078.37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Payment from Enterprise Solutions - Mobile App Developme</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>6740.35</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>REF-ENT001-056</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>BK-2025-0916-056</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>611060.45</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Payment from Manufacturing Inc - POS System Integrati</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>11550.17</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>REF-MFG001-061</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>BK-2025-0916-061</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>685128.14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Payment from Global Enterprises - Project Management S</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>23726.74</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>REF-GLOB001-059</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>BK-2025-0918-059</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>673577.97</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Transfer from Enterprise Solutions</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>5852.68</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>REF-ENT001-064</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>BK-2025-0918-064</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>703786.28</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ACH Credit - Global Enterprises</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>6809.98</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>BK-2025-0919-058</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>649851.23</v>
       </c>
     </row>
   </sheetData>
@@ -5361,7 +6705,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -5371,7 +6715,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -5381,7 +6725,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5392,7 +6736,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$541,416.30</t>
+          <t>$700,905.79</t>
         </is>
       </c>
     </row>
@@ -5403,7 +6747,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -5413,7 +6757,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -5433,7 +6777,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
